--- a/docs/00_schedule/Team6_Schedule.xlsx
+++ b/docs/00_schedule/Team6_Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cmu_project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cmu_project\docs\00_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="380">
   <si>
     <t>REQD-01-003</t>
   </si>
@@ -1533,7 +1533,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>square</t>
+    <t>SQUARE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>executing Static Analysis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>review the init status of the code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload the vulnerability into the git</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2235,6 +2247,162 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2262,185 +2430,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7088,15 +7100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>107576</xdr:colOff>
+      <xdr:colOff>118782</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>118781</xdr:colOff>
+      <xdr:colOff>122465</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>6636</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7104,9 +7116,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14899341" y="4085665"/>
-          <a:ext cx="11205" cy="1692000"/>
+        <a:xfrm>
+          <a:off x="11780103" y="3923180"/>
+          <a:ext cx="3683" cy="1614927"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7158,6 +7170,59 @@
         <a:xfrm>
           <a:off x="14406283" y="880783"/>
           <a:ext cx="4482" cy="7456393"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132390</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136872</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12038640" y="872409"/>
+          <a:ext cx="4482" cy="7437430"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8153,60 +8218,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="H2" s="85" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="H2" s="137" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="138" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="72"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
@@ -8222,10 +8287,10 @@
       <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="137" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="137"/>
       <c r="C7" t="s">
         <v>234</v>
       </c>
@@ -8240,8 +8305,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
       <c r="C8" t="s">
         <v>237</v>
       </c>
@@ -8256,8 +8321,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" t="s">
         <v>235</v>
       </c>
@@ -8272,8 +8337,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
       <c r="C10" t="s">
         <v>236</v>
       </c>
@@ -8288,8 +8353,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
       <c r="C11" t="s">
         <v>268</v>
       </c>
@@ -8304,8 +8369,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
       <c r="C12" t="s">
         <v>269</v>
       </c>
@@ -8320,8 +8385,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
       <c r="C13" t="s">
         <v>270</v>
       </c>
@@ -8336,8 +8401,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
       <c r="C14" t="s">
         <v>271</v>
       </c>
@@ -8346,8 +8411,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
       <c r="C15" t="s">
         <v>272</v>
       </c>
@@ -8356,8 +8421,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
       <c r="C16" t="s">
         <v>273</v>
       </c>
@@ -8370,8 +8435,8 @@
       <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="137"/>
       <c r="C17" t="s">
         <v>274</v>
       </c>
@@ -8384,8 +8449,8 @@
       <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="137"/>
       <c r="C18" t="s">
         <v>275</v>
       </c>
@@ -8400,8 +8465,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="137"/>
       <c r="C19" t="s">
         <v>276</v>
       </c>
@@ -8413,8 +8478,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
       <c r="C20" t="s">
         <v>277</v>
       </c>
@@ -8429,8 +8494,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
       <c r="C21" t="s">
         <v>278</v>
       </c>
@@ -8445,8 +8510,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
       <c r="C22" t="s">
         <v>279</v>
       </c>
@@ -8461,8 +8526,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
       <c r="C23" t="s">
         <v>285</v>
       </c>
@@ -8474,8 +8539,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="137"/>
       <c r="C24" t="s">
         <v>286</v>
       </c>
@@ -8490,8 +8555,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
       <c r="C25" t="s">
         <v>287</v>
       </c>
@@ -8506,8 +8571,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
       <c r="C26" t="s">
         <v>288</v>
       </c>
@@ -8522,8 +8587,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="68" t="s">
         <v>289</v>
       </c>
@@ -8539,22 +8604,22 @@
     </row>
     <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="83"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="70"/>
       <c r="E28" s="69"/>
       <c r="F28" s="69"/>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="132" t="s">
         <v>230</v>
       </c>
       <c r="C29" s="73" t="s">
@@ -8576,7 +8641,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
+      <c r="A30" s="133"/>
       <c r="C30" s="17" t="s">
         <v>247</v>
       </c>
@@ -8591,7 +8656,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
+      <c r="A31" s="133"/>
       <c r="C31" s="17" t="s">
         <v>245</v>
       </c>
@@ -8609,7 +8674,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
+      <c r="A32" s="133"/>
       <c r="C32" s="17" t="s">
         <v>248</v>
       </c>
@@ -8627,7 +8692,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
+      <c r="A33" s="133"/>
       <c r="C33" s="17" t="s">
         <v>249</v>
       </c>
@@ -8645,7 +8710,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
+      <c r="A34" s="133"/>
       <c r="C34" s="17" t="s">
         <v>265</v>
       </c>
@@ -8660,7 +8725,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
+      <c r="A35" s="133"/>
       <c r="C35" s="17" t="s">
         <v>266</v>
       </c>
@@ -8675,7 +8740,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
+      <c r="A36" s="133"/>
       <c r="C36" s="17" t="s">
         <v>267</v>
       </c>
@@ -8690,7 +8755,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
+      <c r="A37" s="133"/>
       <c r="C37" s="17" t="s">
         <v>250</v>
       </c>
@@ -8707,7 +8772,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
+      <c r="A38" s="133"/>
       <c r="C38" s="17" t="s">
         <v>251</v>
       </c>
@@ -8722,7 +8787,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
+      <c r="A39" s="133"/>
       <c r="C39" s="17" t="s">
         <v>252</v>
       </c>
@@ -8740,7 +8805,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
+      <c r="A40" s="133"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
@@ -8751,7 +8816,7 @@
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
+      <c r="A41" s="133"/>
       <c r="C41" s="74" t="s">
         <v>289</v>
       </c>
@@ -8766,7 +8831,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
+      <c r="A42" s="134"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
@@ -8817,12 +8882,12 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="76"/>
@@ -8982,12 +9047,12 @@
       <c r="C23" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
@@ -9145,10 +9210,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ23" sqref="AJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9167,99 +9232,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="94" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="90" t="s">
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="89" t="s">
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="90" t="s">
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="89" t="s">
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
     </row>
     <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
       <c r="J3" s="60" t="s">
         <v>72</v>
       </c>
@@ -9337,61 +9402,61 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="93"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="89" t="s">
         <v>358</v>
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
-      <c r="N4" s="128" t="s">
+      <c r="N4" s="111" t="s">
         <v>366</v>
       </c>
       <c r="O4" s="57"/>
       <c r="P4" s="58"/>
-      <c r="Q4" s="128" t="s">
+      <c r="Q4" s="111" t="s">
         <v>367</v>
       </c>
       <c r="R4" s="58"/>
       <c r="S4" s="59"/>
       <c r="T4" s="57"/>
       <c r="U4" s="58"/>
-      <c r="V4" s="128" t="s">
+      <c r="V4" s="111" t="s">
         <v>370</v>
       </c>
       <c r="W4" s="58"/>
       <c r="X4" s="59"/>
       <c r="Y4" s="57"/>
       <c r="Z4" s="58"/>
-      <c r="AA4" s="128" t="s">
+      <c r="AA4" s="111" t="s">
         <v>368</v>
       </c>
       <c r="AB4" s="58"/>
       <c r="AC4" s="59"/>
       <c r="AD4" s="57"/>
       <c r="AE4" s="58"/>
-      <c r="AF4" s="128" t="s">
+      <c r="AF4" s="111" t="s">
         <v>369</v>
       </c>
       <c r="AG4" s="58"/>
       <c r="AH4" s="59"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="133" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -9445,7 +9510,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="4" t="s">
         <v>88</v>
       </c>
@@ -9463,10 +9528,10 @@
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="124" t="s">
+      <c r="M6" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="108" t="s">
         <v>138</v>
       </c>
       <c r="O6" s="9"/>
@@ -9495,7 +9560,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="4" t="s">
         <v>148</v>
       </c>
@@ -9512,13 +9577,13 @@
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="115" t="s">
+      <c r="M7" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="122" t="s">
+      <c r="N7" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="114" t="s">
+      <c r="O7" s="97" t="s">
         <v>363</v>
       </c>
       <c r="P7" s="10"/>
@@ -9546,7 +9611,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
@@ -9566,13 +9631,13 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="116" t="s">
+      <c r="O8" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="P8" s="117" t="s">
+      <c r="P8" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="Q8" s="117" t="s">
+      <c r="Q8" s="100" t="s">
         <v>365</v>
       </c>
       <c r="R8" s="10"/>
@@ -9598,7 +9663,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="25" t="s">
         <v>149</v>
       </c>
@@ -9618,9 +9683,9 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
       <c r="R9" s="10"/>
       <c r="S9" s="11"/>
       <c r="T9" s="9"/>
@@ -9644,7 +9709,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="25" t="s">
         <v>150</v>
       </c>
@@ -9690,7 +9755,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="25" t="s">
         <v>151</v>
       </c>
@@ -9736,7 +9801,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="25" t="s">
         <v>152</v>
       </c>
@@ -9756,9 +9821,9 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
       <c r="T12" s="9"/>
@@ -9782,7 +9847,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="38" t="s">
         <v>140</v>
       </c>
@@ -9804,8 +9869,8 @@
       <c r="N13" s="11"/>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
       <c r="S13" s="11"/>
       <c r="T13" s="9"/>
       <c r="U13" s="10"/>
@@ -9828,7 +9893,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="25"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
@@ -9872,7 +9937,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="25"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18" t="s">
@@ -9916,11 +9981,11 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="128" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="17"/>
@@ -9936,8 +10001,8 @@
       <c r="N16" s="11"/>
       <c r="O16" s="9"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
       <c r="S16" s="11"/>
       <c r="T16" s="9"/>
       <c r="U16" s="10"/>
@@ -9959,8 +10024,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="133"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
@@ -9997,8 +10062,8 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="44"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="134"/>
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -10018,9 +10083,9 @@
       <c r="N18" s="11"/>
       <c r="O18" s="9"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="123"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="106"/>
       <c r="T18" s="9"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -10037,8 +10102,8 @@
       <c r="AG18" s="10"/>
       <c r="AH18" s="44"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="139" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -10059,13 +10124,13 @@
       <c r="M19" s="30"/>
       <c r="N19" s="31"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
       <c r="W19" s="30"/>
       <c r="X19" s="45"/>
       <c r="Y19" s="29"/>
@@ -10079,8 +10144,8 @@
       <c r="AG19" s="30"/>
       <c r="AH19" s="45"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="133"/>
       <c r="B20" s="25" t="s">
         <v>92</v>
       </c>
@@ -10119,8 +10184,8 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="44"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="133"/>
       <c r="B21" s="25"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -10136,14 +10201,14 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
       <c r="W21" s="10"/>
       <c r="X21" s="44"/>
       <c r="Y21" s="9"/>
@@ -10157,8 +10222,8 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="44"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="133"/>
       <c r="B22" s="25"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -10195,8 +10260,8 @@
       <c r="AG22" s="10"/>
       <c r="AH22" s="44"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="133"/>
       <c r="B23" s="25" t="s">
         <v>371</v>
       </c>
@@ -10235,8 +10300,8 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="44"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="133"/>
       <c r="B24" s="25"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -10252,14 +10317,14 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
       <c r="W24" s="10"/>
       <c r="X24" s="44"/>
       <c r="Y24" s="9"/>
@@ -10273,8 +10338,8 @@
       <c r="AG24" s="10"/>
       <c r="AH24" s="44"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="133"/>
       <c r="B25" s="25"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -10291,9 +10356,9 @@
       <c r="M25" s="10"/>
       <c r="N25" s="11"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
       <c r="S25" s="11"/>
       <c r="T25" s="9"/>
       <c r="U25" s="10"/>
@@ -10311,18 +10376,18 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="44"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="133"/>
       <c r="B26" s="25"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F26" s="17"/>
-      <c r="G26" s="102">
+      <c r="G26" s="85">
         <v>1</v>
       </c>
-      <c r="H26" s="107" t="s">
+      <c r="H26" s="90" t="s">
         <v>362</v>
       </c>
       <c r="I26" s="18" t="s">
@@ -10335,12 +10400,12 @@
       <c r="N26" s="11"/>
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
       <c r="W26" s="10"/>
       <c r="X26" s="44"/>
       <c r="Y26" s="9"/>
@@ -10353,9 +10418,18 @@
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="44"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
+      <c r="AJ26" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="133"/>
       <c r="B27" s="4" t="s">
         <v>89</v>
       </c>
@@ -10365,10 +10439,10 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="102">
+      <c r="G27" s="85">
         <v>1</v>
       </c>
-      <c r="H27" s="105" t="s">
+      <c r="H27" s="88" t="s">
         <v>359</v>
       </c>
       <c r="I27" s="17"/>
@@ -10398,8 +10472,8 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="44"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="133"/>
       <c r="B28" s="4"/>
       <c r="C28" s="17"/>
       <c r="D28" s="26" t="s">
@@ -10407,10 +10481,10 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="101">
+      <c r="G28" s="84">
         <v>0.5</v>
       </c>
-      <c r="H28" s="105" t="s">
+      <c r="H28" s="88" t="s">
         <v>360</v>
       </c>
       <c r="I28" s="17" t="s">
@@ -10421,13 +10495,13 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="119"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="102"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="132"/>
+      <c r="S28" s="115"/>
       <c r="T28" s="9"/>
-      <c r="V28" s="119"/>
+      <c r="V28" s="102"/>
       <c r="W28" s="10"/>
       <c r="X28" s="44"/>
       <c r="Y28" s="9"/>
@@ -10441,8 +10515,8 @@
       <c r="AG28" s="10"/>
       <c r="AH28" s="44"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="133"/>
       <c r="B29" s="4"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
@@ -10479,8 +10553,8 @@
       <c r="AG29" s="10"/>
       <c r="AH29" s="44"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="133"/>
       <c r="B30" s="4"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
@@ -10519,8 +10593,8 @@
       <c r="AG30" s="10"/>
       <c r="AH30" s="44"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="133"/>
       <c r="B31" s="4"/>
       <c r="C31" s="17"/>
       <c r="D31" s="32" t="s">
@@ -10557,19 +10631,19 @@
       <c r="AG31" s="10"/>
       <c r="AH31" s="44"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="134"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="87" t="s">
         <v>354</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="103">
+      <c r="G32" s="86">
         <v>0.5</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="91" t="s">
         <v>357</v>
       </c>
       <c r="I32" s="16"/>
@@ -10578,13 +10652,13 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="134"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="117"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="135"/>
+      <c r="S32" s="118"/>
       <c r="T32" s="12"/>
-      <c r="V32" s="134"/>
+      <c r="V32" s="117"/>
       <c r="W32" s="13"/>
       <c r="X32" s="46"/>
       <c r="Y32" s="12"/>
@@ -10599,7 +10673,7 @@
       <c r="AH32" s="46"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="139" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -10624,10 +10698,10 @@
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
       <c r="S33" s="31"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
       <c r="X33" s="45"/>
       <c r="Y33" s="29"/>
       <c r="Z33" s="30"/>
@@ -10641,7 +10715,7 @@
       <c r="AH33" s="45"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
@@ -10664,10 +10738,10 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="11"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
       <c r="X34" s="44"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
@@ -10681,7 +10755,7 @@
       <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
@@ -10705,9 +10779,9 @@
       <c r="R35" s="10"/>
       <c r="S35" s="11"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
       <c r="X35" s="44"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
@@ -10721,7 +10795,7 @@
       <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
+      <c r="A36" s="133"/>
       <c r="B36" s="25" t="s">
         <v>178</v>
       </c>
@@ -10745,9 +10819,9 @@
       <c r="R36" s="10"/>
       <c r="S36" s="11"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
       <c r="X36" s="44"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
@@ -10761,7 +10835,7 @@
       <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="25" t="s">
         <v>179</v>
       </c>
@@ -10785,9 +10859,9 @@
       <c r="R37" s="10"/>
       <c r="S37" s="11"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="137"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
       <c r="X37" s="44"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
@@ -10801,7 +10875,7 @@
       <c r="AH37" s="44"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="50" t="s">
         <v>124</v>
       </c>
@@ -10828,7 +10902,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
-      <c r="X38" s="146" t="s">
+      <c r="X38" s="129" t="s">
         <v>180</v>
       </c>
       <c r="Y38" s="12"/>
@@ -10843,10 +10917,10 @@
       <c r="AH38" s="46"/>
     </row>
     <row r="39" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="140" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
@@ -10881,7 +10955,7 @@
       <c r="AH39" s="64"/>
     </row>
     <row r="40" spans="1:34" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="133" t="s">
         <v>130</v>
       </c>
       <c r="B40" s="19">
@@ -10908,35 +10982,35 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="48"/>
-      <c r="Y40" s="138" t="s">
+      <c r="Y40" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="Z40" s="139" t="s">
+      <c r="Z40" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="AA40" s="139" t="s">
+      <c r="AA40" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="AB40" s="139" t="s">
+      <c r="AB40" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="AC40" s="140" t="s">
+      <c r="AC40" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="AD40" s="138" t="s">
+      <c r="AD40" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="AE40" s="139" t="s">
+      <c r="AE40" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="AF40" s="139" t="s">
+      <c r="AF40" s="122" t="s">
         <v>173</v>
       </c>
       <c r="AG40" s="4"/>
       <c r="AH40" s="48"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
+      <c r="A41" s="133"/>
       <c r="B41" s="19">
         <v>15</v>
       </c>
@@ -10963,17 +11037,17 @@
       <c r="X41" s="48"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="141"/>
-      <c r="AB41" s="141"/>
-      <c r="AC41" s="142"/>
-      <c r="AD41" s="143"/>
-      <c r="AE41" s="141"/>
-      <c r="AF41" s="141"/>
+      <c r="AA41" s="124"/>
+      <c r="AB41" s="124"/>
+      <c r="AC41" s="125"/>
+      <c r="AD41" s="126"/>
+      <c r="AE41" s="124"/>
+      <c r="AF41" s="124"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="48"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="139" t="s">
         <v>131</v>
       </c>
       <c r="B42" s="40">
@@ -11019,7 +11093,7 @@
       <c r="AH42" s="48"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="20">
         <v>17</v>
       </c>
@@ -11056,18 +11130,12 @@
       <c r="AE43" s="15"/>
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
-      <c r="AH43" s="144" t="s">
+      <c r="AH43" s="127" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="J2:N2"/>
     <mergeCell ref="J1:AH1"/>
     <mergeCell ref="A19:A32"/>
     <mergeCell ref="A33:A38"/>
@@ -11076,6 +11144,12 @@
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AD2:AH2"/>
     <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/00_schedule/Team6_Schedule.xlsx
+++ b/docs/00_schedule/Team6_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="11565" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REQ_Phase1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="505">
   <si>
     <t>REQD-01-003</t>
   </si>
@@ -483,10 +483,6 @@
   </si>
   <si>
     <t>max.byungchul.park@gmail.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>byungchul.park@lge.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1998,12 +1994,72 @@
     <t>SEC REQ from Threat Modeling</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>byungchul.park@lge.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presentation(meeting)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRIDE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ doc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA doc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,6 +2191,15 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -2286,7 +2351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2301,24 +2366,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2372,82 +2419,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2506,7 +2477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2516,8 +2487,11 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2536,36 +2510,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2575,169 +2519,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2752,160 +2558,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2929,16 +2582,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2962,11 +2615,152 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2974,7 +2768,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2983,7 +2777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2992,19 +2786,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3019,38 +2810,57 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_Sheet1" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16852,7 +16662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -16887,7 +16697,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17072,7 +16882,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -17101,16 +16911,16 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -17179,7 +16989,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -17189,7 +16999,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -17212,7 +17022,7 @@
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -17334,7 +17144,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -17371,10 +17181,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
         <v>198</v>
-      </c>
-      <c r="B53" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -17398,126 +17208,126 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G19" s="10" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="G19" s="66" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -17544,634 +17354,634 @@
     <col min="6" max="6" width="49.75" customWidth="1"/>
     <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="46.625" customWidth="1"/>
-    <col min="13" max="13" width="2" style="67" customWidth="1"/>
+    <col min="13" max="13" width="2" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="H2" s="157" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
+      <c r="A2" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="H2" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="151"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="158" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" t="s">
+        <v>329</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" t="s">
+        <v>301</v>
+      </c>
+      <c r="J18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I21" t="s">
+        <v>303</v>
+      </c>
+      <c r="J21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24" t="s">
+        <v>305</v>
+      </c>
+      <c r="J24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I25" t="s">
+        <v>306</v>
+      </c>
+      <c r="J25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I26" t="s">
+        <v>307</v>
+      </c>
+      <c r="J26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" t="s">
+        <v>322</v>
+      </c>
+      <c r="I27" t="s">
+        <v>308</v>
+      </c>
+      <c r="J27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="H5" s="156" t="s">
+      <c r="C28" s="95"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="157" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="157"/>
-      <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I7" t="s">
-        <v>327</v>
-      </c>
-      <c r="J7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="157"/>
-      <c r="B8" s="157"/>
-      <c r="C8" t="s">
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="93"/>
+      <c r="C30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="93"/>
+      <c r="C31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="157"/>
-      <c r="B9" s="157"/>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" t="s">
-        <v>228</v>
-      </c>
-      <c r="I9" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
-      <c r="C10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I10" t="s">
-        <v>297</v>
-      </c>
-      <c r="J10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="157"/>
-      <c r="B11" s="157"/>
-      <c r="C11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" t="s">
-        <v>295</v>
-      </c>
-      <c r="I11" t="s">
-        <v>298</v>
-      </c>
-      <c r="J11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="157"/>
-      <c r="B12" s="157"/>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" t="s">
-        <v>299</v>
-      </c>
-      <c r="J12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
-      <c r="C13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" t="s">
-        <v>336</v>
-      </c>
-      <c r="I13" t="s">
-        <v>300</v>
-      </c>
-      <c r="J13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="157"/>
-      <c r="B14" s="157"/>
-      <c r="C14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="157"/>
-      <c r="B15" s="157"/>
-      <c r="C15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="157"/>
-      <c r="B16" s="157"/>
-      <c r="C16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" t="s">
-        <v>330</v>
-      </c>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
-      <c r="B17" s="157"/>
-      <c r="C17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
-      <c r="B18" s="157"/>
-      <c r="C18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" t="s">
-        <v>281</v>
-      </c>
-      <c r="I18" t="s">
-        <v>302</v>
-      </c>
-      <c r="J18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="157"/>
-      <c r="B19" s="157"/>
-      <c r="C19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="157"/>
-      <c r="B20" s="157"/>
-      <c r="C20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" t="s">
-        <v>303</v>
-      </c>
-      <c r="J20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="157"/>
-      <c r="B21" s="157"/>
-      <c r="C21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" t="s">
-        <v>283</v>
-      </c>
-      <c r="I21" t="s">
-        <v>304</v>
-      </c>
-      <c r="J21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="157"/>
-      <c r="B22" s="157"/>
-      <c r="C22" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" t="s">
-        <v>284</v>
-      </c>
-      <c r="I22" t="s">
-        <v>305</v>
-      </c>
-      <c r="J22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="157"/>
-      <c r="B23" s="157"/>
-      <c r="C23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="157"/>
-      <c r="B24" s="157"/>
-      <c r="C24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" t="s">
-        <v>291</v>
-      </c>
-      <c r="I24" t="s">
-        <v>306</v>
-      </c>
-      <c r="J24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="157"/>
-      <c r="B25" s="157"/>
-      <c r="C25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="93"/>
+      <c r="C32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="93"/>
+      <c r="C33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="93"/>
+      <c r="C34" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="93"/>
+      <c r="C35" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="93"/>
+      <c r="C36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="93"/>
+      <c r="C37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="93"/>
+      <c r="C38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="93"/>
+      <c r="C39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="N39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="93"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="93"/>
+      <c r="C41" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="I25" t="s">
-        <v>307</v>
-      </c>
-      <c r="J25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="157"/>
-      <c r="B26" s="157"/>
-      <c r="C26" t="s">
-        <v>288</v>
-      </c>
-      <c r="E26" t="s">
-        <v>322</v>
-      </c>
-      <c r="I26" t="s">
-        <v>308</v>
-      </c>
-      <c r="J26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="157"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" t="s">
-        <v>323</v>
-      </c>
-      <c r="I27" t="s">
-        <v>309</v>
-      </c>
-      <c r="J27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="H28" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="152" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="H29" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="N29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="153"/>
-      <c r="C30" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="C31" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="N31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="153"/>
-      <c r="C32" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="N32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="153"/>
-      <c r="C33" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
+      <c r="F41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="94"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="N33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="153"/>
-      <c r="C34" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="153"/>
-      <c r="C35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="153"/>
-      <c r="C36" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
+      <c r="F42" s="6"/>
+      <c r="H42" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="153"/>
-      <c r="C37" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="H37" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="153"/>
-      <c r="C38" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="153"/>
-      <c r="C39" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="N39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="153"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="H40" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
-      <c r="C41" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="154"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="H42" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -18204,7 +18014,7 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="61.375" customWidth="1"/>
-    <col min="6" max="6" width="2" style="67" customWidth="1"/>
+    <col min="6" max="6" width="2" style="11" customWidth="1"/>
     <col min="7" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18212,22 +18022,22 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="A4" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -18235,18 +18045,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>344</v>
+        <v>295</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>228</v>
+        <v>300</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -18254,277 +18064,277 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>352</v>
-      </c>
-      <c r="C22" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="G30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="G30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B34" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
         <v>261</v>
       </c>
-      <c r="K32" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -18543,750 +18353,750 @@
   <dimension ref="I2:S42"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.625" style="130"/>
-    <col min="9" max="9" width="1.375" style="130" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="130" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="130" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.5" style="131" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="130"/>
-    <col min="14" max="14" width="1.75" style="130" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="130" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.625" style="130" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="130"/>
-    <col min="18" max="18" width="12.5" style="130" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="56.25" style="130" customWidth="1"/>
-    <col min="20" max="16384" width="8.625" style="130"/>
+    <col min="1" max="8" width="8.625" style="23"/>
+    <col min="9" max="9" width="1.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="24" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="23"/>
+    <col min="14" max="14" width="1.75" style="23" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="23"/>
+    <col min="18" max="18" width="12.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.25" style="23" customWidth="1"/>
+    <col min="20" max="16384" width="8.625" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="163" t="s">
-        <v>488</v>
-      </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="N2" s="165" t="s">
+      <c r="I2" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="R2" s="166" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="N2" s="104" t="s">
         <v>486</v>
       </c>
-      <c r="S2" s="166"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="R2" s="105" t="s">
+        <v>485</v>
+      </c>
+      <c r="S2" s="105"/>
     </row>
     <row r="3" spans="9:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
     </row>
     <row r="4" spans="9:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
     </row>
     <row r="5" spans="9:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I5" s="167" t="s">
-        <v>485</v>
-      </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="148"/>
-      <c r="N5" s="159" t="s">
-        <v>485</v>
-      </c>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="R5" s="159" t="s">
-        <v>485</v>
-      </c>
-      <c r="S5" s="159"/>
+      <c r="I5" s="106" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="41"/>
+      <c r="N5" s="107" t="s">
+        <v>484</v>
+      </c>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="R5" s="107" t="s">
+        <v>484</v>
+      </c>
+      <c r="S5" s="107"/>
     </row>
     <row r="6" spans="9:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="147"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="146"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="131"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="9:19" ht="54" x14ac:dyDescent="0.3">
-      <c r="I7" s="160"/>
-      <c r="J7" s="130" t="s">
-        <v>484</v>
-      </c>
-      <c r="K7" s="144" t="s">
+      <c r="I7" s="99"/>
+      <c r="J7" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I8" s="99"/>
+      <c r="J8" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I9" s="99"/>
+      <c r="J9" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I10" s="99"/>
+      <c r="J10" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I11" s="99"/>
+      <c r="J11" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I12" s="99"/>
+      <c r="J12" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I13" s="99"/>
+      <c r="J13" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I14" s="99"/>
+      <c r="J14" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I15" s="99"/>
+      <c r="J15" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="9:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="I16" s="99"/>
+      <c r="J16" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="L7" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="O7" s="130" t="s">
-        <v>483</v>
-      </c>
-      <c r="P7" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="R7" s="134" t="s">
-        <v>482</v>
-      </c>
-      <c r="S7" s="144" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I8" s="160"/>
-      <c r="J8" s="130" t="s">
+      <c r="O16" s="37"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="9:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="I17" s="99"/>
+      <c r="J17" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I18" s="99"/>
+      <c r="J18" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I19" s="99"/>
+      <c r="J19" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I20" s="99"/>
+      <c r="J20" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I21" s="99"/>
+      <c r="J21" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I22" s="99"/>
+      <c r="J22" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="L8" s="131" t="s">
-        <v>480</v>
-      </c>
-      <c r="O8" s="143" t="s">
-        <v>296</v>
-      </c>
-      <c r="P8" s="142" t="s">
-        <v>479</v>
-      </c>
-      <c r="R8" s="134" t="s">
-        <v>478</v>
-      </c>
-      <c r="S8" s="131" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I9" s="160"/>
-      <c r="J9" s="130" t="s">
-        <v>455</v>
-      </c>
-      <c r="L9" s="131" t="s">
-        <v>476</v>
-      </c>
-      <c r="O9" s="143" t="s">
-        <v>475</v>
-      </c>
-      <c r="P9" s="142" t="s">
-        <v>474</v>
-      </c>
-      <c r="R9" s="134" t="s">
-        <v>473</v>
-      </c>
-      <c r="S9" s="131" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I10" s="160"/>
-      <c r="J10" s="130" t="s">
-        <v>471</v>
-      </c>
-      <c r="L10" s="131" t="s">
-        <v>470</v>
-      </c>
-      <c r="O10" s="130" t="s">
-        <v>297</v>
-      </c>
-      <c r="P10" s="131" t="s">
-        <v>470</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>469</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I11" s="160"/>
-      <c r="J11" s="130" t="s">
-        <v>467</v>
-      </c>
-      <c r="L11" s="131" t="s">
-        <v>466</v>
-      </c>
-      <c r="O11" s="130" t="s">
-        <v>298</v>
-      </c>
-      <c r="P11" s="131" t="s">
-        <v>466</v>
-      </c>
-      <c r="R11" s="134" t="s">
-        <v>465</v>
-      </c>
-      <c r="S11" s="131" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I12" s="160"/>
-      <c r="J12" s="130" t="s">
-        <v>447</v>
-      </c>
-      <c r="L12" s="131" t="s">
-        <v>463</v>
-      </c>
-      <c r="O12" s="130" t="s">
-        <v>299</v>
-      </c>
-      <c r="P12" s="131" t="s">
-        <v>462</v>
-      </c>
-      <c r="R12" s="134" t="s">
-        <v>461</v>
-      </c>
-      <c r="S12" s="131" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I13" s="160"/>
-      <c r="J13" s="130" t="s">
-        <v>459</v>
-      </c>
-      <c r="L13" s="131" t="s">
-        <v>458</v>
-      </c>
-      <c r="O13" s="130" t="s">
-        <v>300</v>
-      </c>
-      <c r="P13" s="131" t="s">
-        <v>458</v>
-      </c>
-      <c r="R13" s="134" t="s">
-        <v>457</v>
-      </c>
-      <c r="S13" s="131" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I14" s="160"/>
-      <c r="J14" s="130" t="s">
-        <v>271</v>
-      </c>
-      <c r="K14" s="130" t="s">
+      <c r="O22" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="P22" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="P14" s="131"/>
-    </row>
-    <row r="15" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I15" s="160"/>
-      <c r="J15" s="130" t="s">
-        <v>272</v>
-      </c>
-      <c r="K15" s="130" t="s">
-        <v>455</v>
-      </c>
-      <c r="P15" s="131"/>
-    </row>
-    <row r="16" spans="9:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="I16" s="160"/>
-      <c r="J16" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="K16" s="144" t="s">
-        <v>453</v>
-      </c>
-      <c r="L16" s="131" t="s">
-        <v>454</v>
-      </c>
-      <c r="O16" s="144"/>
-      <c r="P16" s="131"/>
-    </row>
-    <row r="17" spans="9:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="I17" s="160"/>
-      <c r="J17" s="130" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" s="144" t="s">
-        <v>453</v>
-      </c>
-      <c r="L17" s="131" t="s">
-        <v>452</v>
-      </c>
-      <c r="O17" s="144"/>
-      <c r="P17" s="131"/>
-    </row>
-    <row r="18" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I18" s="160"/>
-      <c r="J18" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" s="131" t="s">
-        <v>450</v>
-      </c>
-      <c r="O18" s="130" t="s">
-        <v>451</v>
-      </c>
-      <c r="P18" s="131" t="s">
-        <v>450</v>
-      </c>
-      <c r="R18" s="134" t="s">
-        <v>449</v>
-      </c>
-      <c r="S18" s="131" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I19" s="160"/>
-      <c r="J19" s="130" t="s">
-        <v>276</v>
-      </c>
-      <c r="K19" s="130" t="s">
-        <v>447</v>
-      </c>
-      <c r="L19" s="131" t="s">
-        <v>446</v>
-      </c>
-      <c r="P19" s="131"/>
-    </row>
-    <row r="20" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I20" s="160"/>
-      <c r="J20" s="130" t="s">
-        <v>277</v>
-      </c>
-      <c r="L20" s="131" t="s">
-        <v>444</v>
-      </c>
-      <c r="O20" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="P20" s="131" t="s">
-        <v>444</v>
-      </c>
-      <c r="R20" s="134" t="s">
-        <v>443</v>
-      </c>
-      <c r="S20" s="131" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I21" s="160"/>
-      <c r="J21" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="L21" s="131" t="s">
-        <v>441</v>
-      </c>
-      <c r="O21" s="130" t="s">
-        <v>304</v>
-      </c>
-      <c r="P21" s="131" t="s">
-        <v>441</v>
-      </c>
-      <c r="R21" s="134" t="s">
-        <v>440</v>
-      </c>
-      <c r="S21" s="131" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I22" s="160"/>
-      <c r="J22" s="130" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="131" t="s">
+      <c r="R22" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="O22" s="130" t="s">
-        <v>305</v>
-      </c>
-      <c r="P22" s="131" t="s">
-        <v>437</v>
-      </c>
-      <c r="R22" s="134" t="s">
-        <v>438</v>
-      </c>
-      <c r="S22" s="131" t="s">
-        <v>437</v>
+      <c r="S22" s="24" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I23" s="160"/>
-      <c r="J23" s="130" t="s">
+      <c r="I23" s="99"/>
+      <c r="J23" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I24" s="99"/>
+      <c r="J24" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="K23" s="130" t="s">
-        <v>436</v>
-      </c>
-      <c r="L23" s="131" t="s">
-        <v>435</v>
-      </c>
-      <c r="P23" s="131"/>
-    </row>
-    <row r="24" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I24" s="160"/>
-      <c r="J24" s="130" t="s">
+      <c r="L24" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I25" s="99"/>
+      <c r="J25" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="L24" s="131" t="s">
-        <v>434</v>
-      </c>
-      <c r="O24" s="130" t="s">
-        <v>433</v>
-      </c>
-      <c r="P24" s="131" t="s">
-        <v>432</v>
-      </c>
-      <c r="R24" s="134" t="s">
-        <v>431</v>
-      </c>
-      <c r="S24" s="131" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I25" s="160"/>
-      <c r="J25" s="130" t="s">
+      <c r="L25" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I26" s="99"/>
+      <c r="J26" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="L25" s="142" t="s">
-        <v>429</v>
-      </c>
-      <c r="O25" s="143" t="s">
+      <c r="L26" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="O26" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="P25" s="142" t="s">
-        <v>429</v>
-      </c>
-      <c r="R25" s="134" t="s">
-        <v>428</v>
-      </c>
-      <c r="S25" s="131" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I26" s="160"/>
-      <c r="J26" s="130" t="s">
+      <c r="P26" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="R26" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I27" s="99"/>
+      <c r="J27" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="L26" s="131" t="s">
-        <v>424</v>
-      </c>
-      <c r="O26" s="130" t="s">
+      <c r="L27" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="O27" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="P26" s="131" t="s">
-        <v>426</v>
-      </c>
-      <c r="R26" s="134" t="s">
-        <v>425</v>
-      </c>
-      <c r="S26" s="131" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="27" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="I27" s="160"/>
-      <c r="J27" s="141" t="s">
-        <v>289</v>
-      </c>
-      <c r="L27" s="131" t="s">
+      <c r="P27" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="R27" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="O27" s="130" t="s">
-        <v>309</v>
-      </c>
-      <c r="P27" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="R27" s="134" t="s">
-        <v>423</v>
-      </c>
-      <c r="S27" s="131" t="s">
-        <v>422</v>
+      <c r="S27" s="24" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="9:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="161" t="s">
-        <v>421</v>
-      </c>
-      <c r="J28" s="161"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="139"/>
-      <c r="N28" s="162" t="s">
-        <v>421</v>
-      </c>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="R28" s="162" t="s">
+      <c r="I28" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="S28" s="162"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="32"/>
+      <c r="N28" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="R28" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="S28" s="101"/>
     </row>
     <row r="29" spans="9:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="137" t="s">
-        <v>419</v>
-      </c>
-      <c r="K29" s="137"/>
-      <c r="L29" s="138" t="s">
+      <c r="J29" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137" t="s">
+      <c r="K29" s="30"/>
+      <c r="L29" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="P29" s="131" t="s">
+      <c r="N29" s="30"/>
+      <c r="O29" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="R29" s="134" t="s">
+      <c r="P29" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="S29" s="131" t="s">
+      <c r="R29" s="27" t="s">
         <v>414</v>
       </c>
+      <c r="S29" s="24" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="30" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J30" s="133" t="s">
+      <c r="J30" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J31" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J32" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K30" s="133"/>
-      <c r="L30" s="135" t="s">
-        <v>411</v>
-      </c>
-      <c r="N30" s="133"/>
-      <c r="O30" s="133" t="s">
-        <v>413</v>
-      </c>
-      <c r="P30" s="135" t="s">
-        <v>411</v>
-      </c>
-      <c r="R30" s="134" t="s">
-        <v>412</v>
-      </c>
-      <c r="S30" s="131" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J31" s="133" t="s">
-        <v>245</v>
-      </c>
-      <c r="K31" s="133"/>
-      <c r="L31" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133" t="s">
-        <v>410</v>
-      </c>
-      <c r="P31" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="R31" s="134" t="s">
-        <v>408</v>
-      </c>
-      <c r="S31" s="131" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J32" s="133" t="s">
+      <c r="K32" s="26"/>
+      <c r="L32" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J33" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="K32" s="133"/>
-      <c r="L32" s="135" t="s">
-        <v>405</v>
-      </c>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133" t="s">
-        <v>406</v>
-      </c>
-      <c r="P32" s="135" t="s">
-        <v>405</v>
-      </c>
-      <c r="R32" s="134" t="s">
-        <v>404</v>
-      </c>
-      <c r="S32" s="131" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J33" s="133" t="s">
+      <c r="K33" s="26"/>
+      <c r="L33" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J34" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="K33" s="133"/>
-      <c r="L33" s="135" t="s">
-        <v>401</v>
-      </c>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133" t="s">
-        <v>402</v>
-      </c>
-      <c r="P33" s="135" t="s">
-        <v>401</v>
-      </c>
-      <c r="R33" s="134" t="s">
-        <v>400</v>
-      </c>
-      <c r="S33" s="131" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J34" s="133" t="s">
+      <c r="K34" s="26"/>
+      <c r="L34" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="J35" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="K34" s="133"/>
-      <c r="L34" s="135" t="s">
-        <v>398</v>
-      </c>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133" t="s">
+      <c r="K35" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J36" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J37" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="P34" s="135" t="s">
-        <v>398</v>
-      </c>
-      <c r="R34" s="134" t="s">
-        <v>397</v>
-      </c>
-      <c r="S34" s="131" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="10:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="J35" s="133" t="s">
-        <v>251</v>
-      </c>
-      <c r="K35" s="136" t="s">
-        <v>395</v>
-      </c>
-      <c r="L35" s="135" t="s">
-        <v>394</v>
-      </c>
-      <c r="N35" s="133"/>
-      <c r="P35" s="131"/>
-    </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.3">
-      <c r="J36" s="133" t="s">
-        <v>252</v>
-      </c>
-      <c r="K36" s="133" t="s">
-        <v>245</v>
-      </c>
-      <c r="L36" s="135" t="s">
-        <v>393</v>
-      </c>
-      <c r="N36" s="133"/>
-      <c r="P36" s="131"/>
-    </row>
-    <row r="37" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J37" s="133" t="s">
-        <v>392</v>
-      </c>
-      <c r="K37" s="133"/>
-      <c r="L37" s="135" t="s">
+      <c r="P37" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="R37" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133" t="s">
+      <c r="S37" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J38" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="P37" s="135" t="s">
-        <v>390</v>
-      </c>
-      <c r="R37" s="134" t="s">
-        <v>391</v>
-      </c>
-      <c r="S37" s="131" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J38" s="133" t="s">
-        <v>389</v>
-      </c>
-      <c r="K38" s="133"/>
-      <c r="L38" s="135" t="s">
-        <v>388</v>
-      </c>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133" t="s">
-        <v>317</v>
-      </c>
-      <c r="P38" s="135" t="s">
-        <v>387</v>
-      </c>
-      <c r="R38" s="134" t="s">
+      <c r="P38" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="S38" s="131" t="s">
+      <c r="R38" s="27" t="s">
         <v>385</v>
       </c>
+      <c r="S38" s="24" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="39" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J39" s="133" t="s">
-        <v>384</v>
-      </c>
-      <c r="K39" s="133"/>
-      <c r="L39" s="135" t="s">
+      <c r="J39" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133" t="s">
-        <v>383</v>
-      </c>
-      <c r="P39" s="135" t="s">
-        <v>382</v>
-      </c>
-      <c r="R39" s="134" t="s">
+      <c r="P39" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="S39" s="131" t="s">
+      <c r="R39" s="27" t="s">
         <v>380</v>
       </c>
+      <c r="S39" s="24" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="40" spans="10:19" x14ac:dyDescent="0.3">
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="131"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="24"/>
     </row>
     <row r="41" spans="10:19" x14ac:dyDescent="0.3">
-      <c r="N41" s="133"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="131"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="10:19" x14ac:dyDescent="0.3">
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="131"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I7:I27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="I2:L4"/>
     <mergeCell ref="N2:P4"/>
     <mergeCell ref="R2:S4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="I7:I27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19299,8 +19109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19319,1912 +19129,1930 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+    </row>
+    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+    </row>
+    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="117"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="109"/>
+      <c r="B6" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="109"/>
+      <c r="B7" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="109"/>
+      <c r="B8" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
+      <c r="B9" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="109"/>
+      <c r="B10" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="109"/>
+      <c r="B11" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="109"/>
+      <c r="B12" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="109"/>
+      <c r="B13" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="109"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="109"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="109"/>
+      <c r="B16" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="109"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="65"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="109"/>
+      <c r="B18" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="65"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="65"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="109"/>
+      <c r="B20" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="65"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="109"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="65"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="109"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="65"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="109"/>
+      <c r="B23" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="65"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="109"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="65"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="109"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="65"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="109"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="70">
+        <v>1</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="65"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="65"/>
+      <c r="AJ26" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="109"/>
+      <c r="B27" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="70">
+        <v>1</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="65"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="109"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="65"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="65"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="109"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="65"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="109"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="J30" s="65"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="65"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="109"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="65"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="109"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="65"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="65"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="109"/>
+      <c r="B34" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="65"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" s="109"/>
+      <c r="B35" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="65"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="109"/>
+      <c r="B36" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
+      <c r="AH36" s="65"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" s="109"/>
+      <c r="B37" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="65"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" s="109"/>
+      <c r="B38" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="65"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="175" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="172" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="175" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-    </row>
-    <row r="3" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="89" t="s">
-        <v>355</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>356</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>358</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="111" t="s">
-        <v>366</v>
-      </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="111" t="s">
-        <v>367</v>
-      </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="111" t="s">
-        <v>370</v>
-      </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="111" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="111" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="59"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="153"/>
-      <c r="B6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="N6" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="97" t="s">
-        <v>363</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q8" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="153"/>
-      <c r="B9" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="153"/>
-      <c r="B10" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="153"/>
-      <c r="B11" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="153"/>
-      <c r="B12" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="153"/>
-      <c r="B13" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="153"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="52" t="s">
+      <c r="B39" s="112"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+      <c r="AH39" s="62"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A40" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="80">
+        <v>14</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z40" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA40" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB40" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC40" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="153"/>
-      <c r="B16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="153"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="44"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
-      <c r="B18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="44"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="168" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="45"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="153"/>
-      <c r="B20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="44"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="153"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="44"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="44"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="153"/>
-      <c r="B23" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="44"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="153"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="44"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="153"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="44"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="153"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="85">
-        <v>1</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="44"/>
-      <c r="AJ26" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="153"/>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="85">
-        <v>1</v>
-      </c>
-      <c r="H27" s="88" t="s">
-        <v>359</v>
-      </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="44"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="153"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="88" t="s">
-        <v>360</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="9"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="44"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="153"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="44"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="153"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="44"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="44"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="154"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="86">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="12"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="46"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A33" s="168" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="45"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="153"/>
-      <c r="B34" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="AD40" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE40" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF40" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="81"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41" s="109"/>
+      <c r="B41" s="80">
+        <v>15</v>
+      </c>
+      <c r="C41" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="44"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A35" s="153"/>
-      <c r="B35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="44"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="153"/>
-      <c r="B36" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="44"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A37" s="153"/>
-      <c r="B37" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="44"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A38" s="154"/>
-      <c r="B38" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="129" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="46"/>
-    </row>
-    <row r="39" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="169" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="63"/>
-      <c r="AH39" s="64"/>
-    </row>
-    <row r="40" spans="1:34" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="153" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="83"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="81"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A42" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="19">
-        <v>14</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="36"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z40" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA40" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB40" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC40" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD40" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE40" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF40" s="122" t="s">
+      <c r="B42" s="80">
+        <v>16</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="48"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
-      <c r="B41" s="19">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="36"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="124"/>
-      <c r="AB41" s="124"/>
-      <c r="AC41" s="125"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="124"/>
-      <c r="AF41" s="124"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="48"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A42" s="168" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="40">
-        <v>16</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27" t="s">
+      <c r="AG42" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="AG42" s="27" t="s">
+      <c r="AH42" s="81"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A43" s="109"/>
+      <c r="B43" s="80">
+        <v>17</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="84" t="s">
         <v>175</v>
-      </c>
-      <c r="AH42" s="48"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A43" s="154"/>
-      <c r="B43" s="20">
-        <v>17</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="127" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A2:I3"/>
     <mergeCell ref="J1:AH1"/>
     <mergeCell ref="A19:A32"/>
     <mergeCell ref="A33:A38"/>
@@ -21232,13 +21060,6 @@
     <mergeCell ref="T2:X2"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21249,94 +21070,320 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="15" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="119" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>371</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="119" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+    </row>
+    <row r="10" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="88" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88" t="s">
+        <v>498</v>
+      </c>
+      <c r="K10" s="88" t="s">
+        <v>503</v>
+      </c>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B12" s="48" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B13" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B14" s="48" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B15" s="48" t="s">
         <v>114</v>
       </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/00_schedule/Team6_Schedule.xlsx
+++ b/docs/00_schedule/Team6_Schedule.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="507">
   <si>
     <t>REQD-01-003</t>
   </si>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Attack Tree</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Presentation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -494,18 +490,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">RATS </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpotBugs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SonarQube</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -586,10 +570,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>available</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -610,10 +590,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4-3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -630,10 +606,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HEAVEN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -690,91 +662,83 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presentation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(PC)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server(Jetson Nano)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Presentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetration Test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetration Test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client(PC)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server(Jetson Nano)</t>
+    <t>I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1450,34 +1414,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Deliveries</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cppcheck_20210608_v0.0.1.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>static_analysis_20210608_v0.0.1_reviewed.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>flawfinder_20210607_v0.0.1.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(github issues)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/31(open/closed)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1515,10 +1451,6 @@
   </si>
   <si>
     <t>SEC Risk Assessment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>java, findbugs,N/A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1527,22 +1459,6 @@
   </si>
   <si>
     <t>Documentation( Integrator )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQUARE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>executing Static Analysis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>review the init status of the code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload the vulnerability into the git</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1991,10 +1907,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SEC REQ from Threat Modeling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>byungchul.park@lge.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2052,6 +1964,105 @@
   </si>
   <si>
     <t>안정환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk_management.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artifacts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artifacts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo &amp; Presentation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team6_Schedule.xlsx, requirements_v2.0.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_requirements.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D&amp;P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase1_document_team6.docx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>static_analysis_20210608_v0.0.1_reviewed.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>threat_modeling.xlsx, JetsonNano_pjt.tm7,
+PnG.docx, jetsonNano_STRIDE.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - JetsonNano_pjt.tm7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PnG.docx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - jetsonNano_STRIDE.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ThreatModeling.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - flawfinder_20210607_v0.0.1.txt
+ - flawfinder_20210614_v0.5.0.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cppcheck_20210608_v0.0.1.csv
+ - cppcheck_20210610_v0.5.0.csv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2059,7 +2070,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,14 +2120,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2351,7 +2354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2476,6 +2479,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2484,14 +2515,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2555,70 +2586,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2627,7 +2658,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2684,16 +2715,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2708,16 +2733,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2747,13 +2769,10 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2762,10 +2781,22 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2789,43 +2820,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2834,19 +2856,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2854,6 +2885,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -16188,16 +16267,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16205,60 +16284,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14903824" y="885265"/>
-          <a:ext cx="11205" cy="2947147"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>118782</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11780103" y="3923180"/>
-          <a:ext cx="3683" cy="1614927"/>
+          <a:off x="15419294" y="649941"/>
+          <a:ext cx="11206" cy="7216588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16298,7 +16326,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16351,7 +16379,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>136872</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16697,7 +16725,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16791,7 +16819,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -16882,7 +16910,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -16911,16 +16939,16 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -16989,7 +17017,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -16999,7 +17027,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -17012,7 +17040,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
@@ -17022,13 +17050,13 @@
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -17061,7 +17089,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -17144,7 +17172,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -17181,10 +17209,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -17209,125 +17237,125 @@
   <sheetData>
     <row r="2" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F2" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="7:7" ht="33" x14ac:dyDescent="0.3">
       <c r="G19" s="10" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -17359,7 +17387,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -17367,7 +17395,7 @@
       <c r="E2" s="90"/>
       <c r="F2" s="90"/>
       <c r="H2" s="97" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
@@ -17400,14 +17428,14 @@
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="98" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C5" s="98"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="H5" s="96" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="96"/>
@@ -17417,10 +17445,10 @@
       <c r="A6" s="8"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -17428,149 +17456,149 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="97" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B7" s="97"/>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="97"/>
       <c r="B8" s="97"/>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
       <c r="B9" s="97"/>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
       <c r="B10" s="97"/>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J10" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="97"/>
       <c r="B11" s="97"/>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="J11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="97"/>
       <c r="B12" s="97"/>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I12" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="97"/>
       <c r="B13" s="97"/>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="97"/>
       <c r="B14" s="97"/>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="97"/>
       <c r="B15" s="97"/>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="97"/>
       <c r="B16" s="97"/>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -17578,13 +17606,13 @@
       <c r="A17" s="97"/>
       <c r="B17" s="97"/>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -17592,167 +17620,167 @@
       <c r="A18" s="97"/>
       <c r="B18" s="97"/>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J18" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="97"/>
       <c r="B19" s="97"/>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="97"/>
       <c r="B20" s="97"/>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I20" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="97"/>
       <c r="B21" s="97"/>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="I21" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="J21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
       <c r="C22" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I22" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="97"/>
       <c r="B23" s="97"/>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="97"/>
       <c r="B24" s="97"/>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J24" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="97"/>
       <c r="B25" s="97"/>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I25" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J25" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="97"/>
       <c r="B26" s="97"/>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J26" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="97"/>
       <c r="B27" s="97"/>
       <c r="C27" s="12" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I27" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J27" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="95" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C28" s="95"/>
       <c r="D28" s="14"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="H28" s="95" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
@@ -17760,188 +17788,188 @@
     </row>
     <row r="29" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="92" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="93"/>
       <c r="C30" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="93"/>
       <c r="C31" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="93"/>
       <c r="C32" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="93"/>
       <c r="C33" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="93"/>
       <c r="C34" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="93"/>
       <c r="C35" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="93"/>
       <c r="C36" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
       <c r="C37" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
       <c r="C38" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
       <c r="C39" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -17951,23 +17979,23 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="93"/>
       <c r="C41" s="18" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -17975,11 +18003,11 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -18023,7 +18051,7 @@
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -18034,10 +18062,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -18045,18 +18073,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -18064,123 +18092,123 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K13" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K15" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K18" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -18188,7 +18216,7 @@
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B25" s="95"/>
       <c r="C25" s="95"/>
@@ -18196,125 +18224,125 @@
     </row>
     <row r="26" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G30" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -18322,19 +18350,19 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -18375,18 +18403,18 @@
   <sheetData>
     <row r="2" spans="9:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="102" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="J2" s="102"/>
       <c r="K2" s="102"/>
       <c r="L2" s="102"/>
       <c r="N2" s="104" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="O2" s="102"/>
       <c r="P2" s="102"/>
       <c r="R2" s="105" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="S2" s="105"/>
     </row>
@@ -18414,18 +18442,18 @@
     </row>
     <row r="5" spans="9:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I5" s="106" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="J5" s="106"/>
       <c r="K5" s="42"/>
       <c r="L5" s="41"/>
       <c r="N5" s="107" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="O5" s="107"/>
       <c r="P5" s="107"/>
       <c r="R5" s="107" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="S5" s="107"/>
     </row>
@@ -18440,183 +18468,183 @@
     <row r="7" spans="9:19" ht="54" x14ac:dyDescent="0.3">
       <c r="I7" s="99"/>
       <c r="J7" s="23" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I8" s="99"/>
       <c r="J8" s="23" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I9" s="99"/>
       <c r="J9" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>475</v>
-      </c>
       <c r="O9" s="36" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I10" s="99"/>
       <c r="J10" s="23" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I11" s="99"/>
       <c r="J11" s="23" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I12" s="99"/>
       <c r="J12" s="23" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I13" s="99"/>
       <c r="J13" s="23" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="S13" s="24" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I14" s="99"/>
       <c r="J14" s="23" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="P14" s="24"/>
     </row>
     <row r="15" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I15" s="99"/>
       <c r="J15" s="23" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="P15" s="24"/>
     </row>
     <row r="16" spans="9:19" ht="27" x14ac:dyDescent="0.3">
       <c r="I16" s="99"/>
       <c r="J16" s="23" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="24"/>
@@ -18624,13 +18652,13 @@
     <row r="17" spans="9:19" ht="27" x14ac:dyDescent="0.3">
       <c r="I17" s="99"/>
       <c r="J17" s="23" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="24"/>
@@ -18638,436 +18666,436 @@
     <row r="18" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I18" s="99"/>
       <c r="J18" s="23" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I19" s="99"/>
       <c r="J19" s="23" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="P19" s="24"/>
     </row>
     <row r="20" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I20" s="99"/>
       <c r="J20" s="23" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I21" s="99"/>
       <c r="J21" s="23" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I22" s="99"/>
       <c r="J22" s="23" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="R22" s="27" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I23" s="99"/>
       <c r="J23" s="23" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="P23" s="24"/>
     </row>
     <row r="24" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I24" s="99"/>
       <c r="J24" s="23" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="S24" s="24" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I25" s="99"/>
       <c r="J25" s="23" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="O25" s="36" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="S25" s="24" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I26" s="99"/>
       <c r="J26" s="23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="R26" s="27" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="S26" s="24" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="I27" s="99"/>
       <c r="J27" s="34" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="S27" s="24" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="9:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I28" s="100" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="J28" s="100"/>
       <c r="K28" s="33"/>
       <c r="L28" s="32"/>
       <c r="N28" s="101" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="O28" s="101"/>
       <c r="P28" s="101"/>
       <c r="R28" s="101" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="S28" s="101"/>
     </row>
     <row r="29" spans="9:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="J29" s="30" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="31" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="N29" s="30"/>
       <c r="O29" s="30" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="R29" s="27" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J30" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="28" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="R30" s="27" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="S30" s="24" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J31" s="26" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="28" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="26" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="9:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J32" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="28" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="N32" s="26"/>
       <c r="O32" s="26" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="S32" s="24" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J33" s="26" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="28" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="N33" s="26"/>
       <c r="O33" s="26" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="S33" s="24" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J34" s="26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="28" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="S34" s="24" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="10:19" ht="27" x14ac:dyDescent="0.3">
       <c r="J35" s="26" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="L35" s="28" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="N35" s="26"/>
       <c r="P35" s="24"/>
     </row>
     <row r="36" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J36" s="26" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="N36" s="26"/>
       <c r="P36" s="24"/>
     </row>
     <row r="37" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J37" s="26" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="K37" s="26"/>
       <c r="L37" s="28" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="26" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P37" s="28" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="S37" s="24" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J38" s="26" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="K38" s="26"/>
       <c r="L38" s="28" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="26" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="R38" s="27" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="S38" s="24" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="10:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J39" s="26" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="28" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="26" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="R39" s="27" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="S39" s="24" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="10:19" x14ac:dyDescent="0.3">
@@ -19107,10 +19135,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19122,262 +19150,266 @@
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="0.375" customWidth="1"/>
     <col min="7" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="31.75" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="0.5" customWidth="1"/>
     <col min="10" max="15" width="3.375" style="4" customWidth="1"/>
     <col min="16" max="34" width="3.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-    </row>
-    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+    <row r="1" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+    </row>
+    <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="110" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="111" t="s">
         <v>77</v>
-      </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="111" t="s">
-        <v>78</v>
       </c>
       <c r="P2" s="111"/>
       <c r="Q2" s="111"/>
       <c r="R2" s="111"/>
       <c r="S2" s="111"/>
-      <c r="T2" s="110" t="s">
+      <c r="T2" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="111" t="s">
         <v>79</v>
-      </c>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111" t="s">
-        <v>80</v>
       </c>
       <c r="Z2" s="111"/>
       <c r="AA2" s="111"/>
       <c r="AB2" s="111"/>
       <c r="AC2" s="111"/>
-      <c r="AD2" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-    </row>
-    <row r="3" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
+      <c r="AD2" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+    </row>
+    <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="116"/>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
       <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="118"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="L3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="N3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="44" t="s">
-        <v>76</v>
-      </c>
       <c r="O3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="Q3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="R3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="S3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="44" t="s">
-        <v>76</v>
-      </c>
       <c r="T3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="V3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="W3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="X3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="43" t="s">
-        <v>76</v>
-      </c>
       <c r="Y3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="AA3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="44" t="s">
+      <c r="AB3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="44" t="s">
+      <c r="AC3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="44" t="s">
-        <v>76</v>
-      </c>
       <c r="AD3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AF3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AG3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="44" t="s">
+      <c r="AH3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="113"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="110"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="H4" s="85" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>357</v>
-      </c>
+      <c r="G4" s="87" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>490</v>
+      </c>
+      <c r="I4" s="87"/>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
       <c r="N4" s="46" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="O4" s="45"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="46" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
       <c r="V4" s="46" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="W4" s="45"/>
       <c r="X4" s="45"/>
       <c r="Y4" s="45"/>
       <c r="Z4" s="45"/>
       <c r="AA4" s="46" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AB4" s="45"/>
       <c r="AC4" s="45"/>
       <c r="AD4" s="45"/>
       <c r="AE4" s="45"/>
       <c r="AF4" s="46" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="AG4" s="45"/>
       <c r="AH4" s="45"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
-        <v>126</v>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="108" t="s">
+        <v>122</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="86" t="s">
+        <v>489</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>495</v>
+      </c>
       <c r="I5" s="48"/>
       <c r="J5" s="49" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
@@ -19390,7 +19422,7 @@
       <c r="V5" s="51"/>
       <c r="W5" s="51"/>
       <c r="X5" s="52" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Y5" s="51"/>
       <c r="Z5" s="51"/>
@@ -19402,35 +19434,37 @@
       <c r="AF5" s="51"/>
       <c r="AG5" s="51"/>
       <c r="AH5" s="52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="108"/>
       <c r="B6" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="86" t="s">
+        <v>491</v>
+      </c>
       <c r="H6" s="48" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="52" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
       <c r="M6" s="54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="53"/>
@@ -19442,7 +19476,7 @@
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
       <c r="X6" s="52" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="53"/>
       <c r="Z6" s="53"/>
@@ -19454,36 +19488,40 @@
       <c r="AF6" s="53"/>
       <c r="AG6" s="53"/>
       <c r="AH6" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="108"/>
       <c r="B7" s="47" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="G7" s="86" t="s">
+        <v>493</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>498</v>
+      </c>
       <c r="I7" s="48"/>
       <c r="J7" s="52" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N7" s="55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
@@ -19494,7 +19532,7 @@
       <c r="V7" s="53"/>
       <c r="W7" s="53"/>
       <c r="X7" s="52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
@@ -19506,38 +19544,42 @@
       <c r="AF7" s="53"/>
       <c r="AG7" s="53"/>
       <c r="AH7" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="108"/>
       <c r="B8" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="G8" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="135" t="s">
+        <v>500</v>
+      </c>
+      <c r="I8" s="135"/>
       <c r="J8" s="52" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P8" s="56" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="R8" s="53"/>
       <c r="S8" s="53"/>
@@ -19546,7 +19588,7 @@
       <c r="V8" s="53"/>
       <c r="W8" s="53"/>
       <c r="X8" s="52" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
@@ -19558,13 +19600,13 @@
       <c r="AF8" s="53"/>
       <c r="AG8" s="53"/>
       <c r="AH8" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="108"/>
       <c r="B9" s="57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="58" t="s">
@@ -19572,11 +19614,15 @@
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="G9" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>501</v>
+      </c>
+      <c r="I9" s="69"/>
       <c r="J9" s="52" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
@@ -19592,7 +19638,7 @@
       <c r="V9" s="53"/>
       <c r="W9" s="53"/>
       <c r="X9" s="52" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
@@ -19604,25 +19650,29 @@
       <c r="AF9" s="53"/>
       <c r="AG9" s="53"/>
       <c r="AH9" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="108"/>
       <c r="B10" s="57" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="48"/>
-      <c r="D10" s="48" t="s">
-        <v>67</v>
+      <c r="D10" s="58" t="s">
+        <v>138</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="I10" s="69"/>
       <c r="J10" s="52" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
@@ -19638,7 +19688,7 @@
       <c r="V10" s="53"/>
       <c r="W10" s="53"/>
       <c r="X10" s="52" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Y10" s="53"/>
       <c r="Z10" s="53"/>
@@ -19650,33 +19700,37 @@
       <c r="AF10" s="53"/>
       <c r="AG10" s="53"/>
       <c r="AH10" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="108"/>
       <c r="B11" s="57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="58" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="G11" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="I11" s="69"/>
       <c r="J11" s="52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
       <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="53"/>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
@@ -19684,7 +19738,7 @@
       <c r="V11" s="53"/>
       <c r="W11" s="53"/>
       <c r="X11" s="52" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y11" s="53"/>
       <c r="Z11" s="53"/>
@@ -19696,26 +19750,28 @@
       <c r="AF11" s="53"/>
       <c r="AG11" s="53"/>
       <c r="AH11" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="108"/>
       <c r="B12" s="57" t="s">
-        <v>151</v>
+        <v>484</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="58" t="s">
-        <v>69</v>
+        <v>483</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="52" t="s">
-        <v>167</v>
-      </c>
+      <c r="G12" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>504</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
@@ -19729,9 +19785,7 @@
       <c r="U12" s="53"/>
       <c r="V12" s="53"/>
       <c r="W12" s="53"/>
-      <c r="X12" s="52" t="s">
-        <v>166</v>
-      </c>
+      <c r="X12" s="52"/>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
       <c r="AA12" s="53"/>
@@ -19741,26 +19795,28 @@
       <c r="AE12" s="53"/>
       <c r="AF12" s="53"/>
       <c r="AG12" s="53"/>
-      <c r="AH12" s="52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
+      <c r="AH12" s="52"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="108"/>
       <c r="B13" s="61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="G13" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>488</v>
+      </c>
       <c r="I13" s="48"/>
       <c r="J13" s="52" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
@@ -19776,7 +19832,7 @@
       <c r="V13" s="53"/>
       <c r="W13" s="53"/>
       <c r="X13" s="52" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="53"/>
       <c r="Z13" s="53"/>
@@ -19788,23 +19844,25 @@
       <c r="AF13" s="53"/>
       <c r="AG13" s="53"/>
       <c r="AH13" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="108"/>
       <c r="B14" s="57"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="69" t="s">
+        <v>488</v>
+      </c>
+      <c r="I14" s="69"/>
       <c r="J14" s="52" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
@@ -19820,7 +19878,7 @@
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
       <c r="X14" s="52" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Y14" s="53"/>
       <c r="Z14" s="53"/>
@@ -19832,39 +19890,43 @@
       <c r="AF14" s="53"/>
       <c r="AG14" s="53"/>
       <c r="AH14" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="63" t="s">
-        <v>154</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="108"/>
+      <c r="B15" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="G15" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>496</v>
+      </c>
       <c r="I15" s="48"/>
-      <c r="J15" s="52" t="s">
-        <v>190</v>
-      </c>
+      <c r="J15" s="64"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
       <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
       <c r="S15" s="53"/>
       <c r="T15" s="53"/>
       <c r="U15" s="53"/>
       <c r="V15" s="53"/>
       <c r="W15" s="53"/>
       <c r="X15" s="52" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="Y15" s="53"/>
       <c r="Z15" s="53"/>
@@ -19876,122 +19938,124 @@
       <c r="AF15" s="53"/>
       <c r="AG15" s="53"/>
       <c r="AH15" s="52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="109"/>
-      <c r="B16" s="47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="132"/>
+      <c r="B16" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="128"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="133" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>492</v>
+      </c>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="123"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="108"/>
+      <c r="B18" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="65"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48" t="s">
+        <v>175</v>
+      </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
-      <c r="J18" s="65"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
       <c r="O18" s="53"/>
       <c r="P18" s="53"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
       <c r="V18" s="53"/>
       <c r="W18" s="53"/>
-      <c r="X18" s="65"/>
+      <c r="X18" s="64"/>
       <c r="Y18" s="53"/>
       <c r="Z18" s="53"/>
       <c r="AA18" s="53"/>
@@ -20001,39 +20065,35 @@
       <c r="AE18" s="53"/>
       <c r="AF18" s="53"/>
       <c r="AG18" s="53"/>
-      <c r="AH18" s="65"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH18" s="64"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="E19" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
-      <c r="J19" s="65"/>
+      <c r="J19" s="64"/>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="53"/>
-      <c r="X19" s="65"/>
+      <c r="X19" s="64"/>
       <c r="Y19" s="53"/>
       <c r="Z19" s="53"/>
       <c r="AA19" s="53"/>
@@ -20043,37 +20103,35 @@
       <c r="AE19" s="53"/>
       <c r="AF19" s="53"/>
       <c r="AG19" s="53"/>
-      <c r="AH19" s="65"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="57" t="s">
-        <v>92</v>
-      </c>
+      <c r="AH19" s="64"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="108"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
-      <c r="J20" s="65"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="64"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
       <c r="AA20" s="53"/>
@@ -20083,35 +20141,37 @@
       <c r="AE20" s="53"/>
       <c r="AF20" s="53"/>
       <c r="AG20" s="53"/>
-      <c r="AH20" s="65"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="57"/>
+      <c r="AH20" s="64"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="108"/>
+      <c r="B21" s="57" t="s">
+        <v>354</v>
+      </c>
       <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48" t="s">
-        <v>84</v>
-      </c>
+      <c r="D21" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
-      <c r="J21" s="65"/>
+      <c r="J21" s="64"/>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="65"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
       <c r="W21" s="53"/>
-      <c r="X21" s="65"/>
+      <c r="X21" s="64"/>
       <c r="Y21" s="53"/>
       <c r="Z21" s="53"/>
       <c r="AA21" s="53"/>
@@ -20121,35 +20181,35 @@
       <c r="AE21" s="53"/>
       <c r="AF21" s="53"/>
       <c r="AG21" s="53"/>
-      <c r="AH21" s="65"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
+      <c r="AH21" s="64"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
       <c r="B22" s="57"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
-      <c r="J22" s="65"/>
+      <c r="J22" s="64"/>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
       <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="65"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="64"/>
       <c r="Y22" s="53"/>
       <c r="Z22" s="53"/>
       <c r="AA22" s="53"/>
@@ -20159,37 +20219,35 @@
       <c r="AE22" s="53"/>
       <c r="AF22" s="53"/>
       <c r="AG22" s="53"/>
-      <c r="AH22" s="65"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="57" t="s">
-        <v>370</v>
-      </c>
+      <c r="AH22" s="64"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="108"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48" t="s">
+        <v>96</v>
+      </c>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
       <c r="M23" s="53"/>
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="53"/>
       <c r="T23" s="53"/>
       <c r="U23" s="53"/>
       <c r="V23" s="53"/>
       <c r="W23" s="53"/>
-      <c r="X23" s="65"/>
+      <c r="X23" s="64"/>
       <c r="Y23" s="53"/>
       <c r="Z23" s="53"/>
       <c r="AA23" s="53"/>
@@ -20199,35 +20257,37 @@
       <c r="AE23" s="53"/>
       <c r="AF23" s="53"/>
       <c r="AG23" s="53"/>
-      <c r="AH23" s="65"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
+      <c r="AH23" s="64"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="108"/>
       <c r="B24" s="57"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48" t="s">
-        <v>84</v>
-      </c>
+      <c r="D24" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="48"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="65"/>
+      <c r="G24" s="68">
+        <v>1</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
       <c r="M24" s="53"/>
       <c r="N24" s="53"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="65"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="64"/>
       <c r="Y24" s="53"/>
       <c r="Z24" s="53"/>
       <c r="AA24" s="53"/>
@@ -20237,35 +20297,41 @@
       <c r="AE24" s="53"/>
       <c r="AF24" s="53"/>
       <c r="AG24" s="53"/>
-      <c r="AH24" s="65"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="48"/>
+      <c r="AH24" s="64"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="108"/>
+      <c r="B25" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>66</v>
+      </c>
       <c r="D25" s="48"/>
-      <c r="E25" s="48" t="s">
-        <v>97</v>
-      </c>
+      <c r="E25" s="48"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="65"/>
+      <c r="G25" s="68">
+        <v>1</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>499</v>
+      </c>
+      <c r="I25" s="69"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
       <c r="O25" s="53"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
       <c r="S25" s="53"/>
       <c r="T25" s="53"/>
       <c r="U25" s="53"/>
       <c r="V25" s="53"/>
       <c r="W25" s="53"/>
-      <c r="X25" s="65"/>
+      <c r="X25" s="64"/>
       <c r="Y25" s="53"/>
       <c r="Z25" s="53"/>
       <c r="AA25" s="53"/>
@@ -20275,41 +20341,41 @@
       <c r="AE25" s="53"/>
       <c r="AF25" s="53"/>
       <c r="AG25" s="53"/>
-      <c r="AH25" s="65"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
-      <c r="B26" s="57"/>
+      <c r="AH25" s="64"/>
+    </row>
+    <row r="26" spans="1:34" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="108"/>
+      <c r="B26" s="57" t="s">
+        <v>485</v>
+      </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="48" t="s">
-        <v>125</v>
+      <c r="D26" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
-      <c r="G26" s="70">
+      <c r="G26" s="71">
         <v>1</v>
       </c>
-      <c r="H26" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="J26" s="65"/>
+      <c r="H26" s="136" t="s">
+        <v>505</v>
+      </c>
+      <c r="I26" s="134"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
       <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="47"/>
       <c r="V26" s="72"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="65"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="64"/>
       <c r="Y26" s="53"/>
       <c r="Z26" s="53"/>
       <c r="AA26" s="53"/>
@@ -20319,50 +20385,41 @@
       <c r="AE26" s="53"/>
       <c r="AF26" s="53"/>
       <c r="AG26" s="53"/>
-      <c r="AH26" s="65"/>
-      <c r="AJ26" t="s">
-        <v>376</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>377</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="109"/>
-      <c r="B27" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="48"/>
+      <c r="AH26" s="64"/>
+    </row>
+    <row r="27" spans="1:34" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="108"/>
+      <c r="B27" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="58" t="s">
+        <v>344</v>
+      </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="70">
+      <c r="G27" s="71">
         <v>1</v>
       </c>
-      <c r="H27" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="136" t="s">
+        <v>506</v>
+      </c>
+      <c r="I27" s="134"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
       <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
+      <c r="S27" s="72"/>
       <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="72"/>
       <c r="W27" s="53"/>
-      <c r="X27" s="65"/>
+      <c r="X27" s="64"/>
       <c r="Y27" s="53"/>
       <c r="Z27" s="53"/>
       <c r="AA27" s="53"/>
@@ -20372,41 +20429,39 @@
       <c r="AE27" s="53"/>
       <c r="AF27" s="53"/>
       <c r="AG27" s="53"/>
-      <c r="AH27" s="65"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="58" t="s">
+      <c r="AH27" s="64"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" s="108" t="s">
         <v>124</v>
       </c>
+      <c r="B28" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="65"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
       <c r="R28" s="53"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="65"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="64"/>
       <c r="Y28" s="53"/>
       <c r="Z28" s="53"/>
       <c r="AA28" s="53"/>
@@ -20416,21 +20471,23 @@
       <c r="AE28" s="53"/>
       <c r="AF28" s="53"/>
       <c r="AG28" s="53"/>
-      <c r="AH28" s="65"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48" t="s">
-        <v>120</v>
-      </c>
+      <c r="AH28" s="64"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" s="108"/>
+      <c r="B29" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
-      <c r="J29" s="65"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="53"/>
@@ -20440,11 +20497,11 @@
       <c r="Q29" s="53"/>
       <c r="R29" s="53"/>
       <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="65"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="64"/>
       <c r="Y29" s="53"/>
       <c r="Z29" s="53"/>
       <c r="AA29" s="53"/>
@@ -20454,23 +20511,25 @@
       <c r="AE29" s="53"/>
       <c r="AF29" s="53"/>
       <c r="AG29" s="53"/>
-      <c r="AH29" s="65"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48" t="s">
-        <v>121</v>
-      </c>
+      <c r="AH29" s="64"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" s="108"/>
+      <c r="B30" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="D30" s="48"/>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="G30" s="71">
+        <v>1</v>
+      </c>
       <c r="H30" s="48"/>
-      <c r="I30" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="J30" s="65"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="53"/>
@@ -20481,10 +20540,10 @@
       <c r="R30" s="53"/>
       <c r="S30" s="53"/>
       <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="65"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="64"/>
       <c r="Y30" s="53"/>
       <c r="Z30" s="53"/>
       <c r="AA30" s="53"/>
@@ -20494,21 +20553,23 @@
       <c r="AE30" s="53"/>
       <c r="AF30" s="53"/>
       <c r="AG30" s="53"/>
-      <c r="AH30" s="65"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
-      <c r="B31" s="47"/>
+      <c r="AH30" s="64"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" s="108"/>
+      <c r="B31" s="57" t="s">
+        <v>169</v>
+      </c>
       <c r="C31" s="48"/>
-      <c r="D31" s="75" t="s">
-        <v>122</v>
+      <c r="D31" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
-      <c r="J31" s="65"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="53"/>
@@ -20519,10 +20580,10 @@
       <c r="R31" s="53"/>
       <c r="S31" s="53"/>
       <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="65"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="64"/>
       <c r="Y31" s="53"/>
       <c r="Z31" s="53"/>
       <c r="AA31" s="53"/>
@@ -20532,39 +20593,37 @@
       <c r="AE31" s="53"/>
       <c r="AF31" s="53"/>
       <c r="AG31" s="53"/>
-      <c r="AH31" s="65"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="47"/>
+      <c r="AH31" s="64"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" s="108"/>
+      <c r="B32" s="57" t="s">
+        <v>170</v>
+      </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="58" t="s">
-        <v>353</v>
+      <c r="D32" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>356</v>
-      </c>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="65"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
       <c r="R32" s="53"/>
-      <c r="S32" s="74"/>
+      <c r="S32" s="53"/>
       <c r="T32" s="53"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="65"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="64"/>
       <c r="Y32" s="53"/>
       <c r="Z32" s="53"/>
       <c r="AA32" s="53"/>
@@ -20574,17 +20633,15 @@
       <c r="AE32" s="53"/>
       <c r="AF32" s="53"/>
       <c r="AG32" s="53"/>
-      <c r="AH32" s="65"/>
+      <c r="AH32" s="64"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>65</v>
+      <c r="A33" s="108"/>
+      <c r="B33" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
@@ -20592,7 +20649,7 @@
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
-      <c r="J33" s="65"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
@@ -20602,11 +20659,13 @@
       <c r="Q33" s="53"/>
       <c r="R33" s="53"/>
       <c r="S33" s="53"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="65"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="76" t="s">
+        <v>171</v>
+      </c>
       <c r="Y33" s="53"/>
       <c r="Z33" s="53"/>
       <c r="AA33" s="53"/>
@@ -20616,55 +20675,55 @@
       <c r="AE33" s="53"/>
       <c r="AF33" s="53"/>
       <c r="AG33" s="53"/>
-      <c r="AH33" s="65"/>
+      <c r="AH33" s="64"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="65"/>
+      <c r="A34" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="109"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="47" t="s">
-        <v>94</v>
+      <c r="A35" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="77">
+        <v>14</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
@@ -20672,119 +20731,141 @@
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
       <c r="I35" s="48"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="65"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z35" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA35" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB35" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC35" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD35" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE35" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF35" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="78"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
-      <c r="B36" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="A36" s="108"/>
+      <c r="B36" s="77">
+        <v>15</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53"/>
-      <c r="AH36" s="65"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="80"/>
+      <c r="AD36" s="80"/>
+      <c r="AE36" s="80"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="78"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="A37" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="77">
+        <v>16</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="65"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG37" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH37" s="78"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
-      <c r="B38" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>176</v>
+      <c r="A38" s="108"/>
+      <c r="B38" s="77">
+        <v>17</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48"/>
@@ -20792,274 +20873,50 @@
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="65"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A39" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="62"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A40" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="80">
-        <v>14</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z40" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA40" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB40" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC40" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD40" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE40" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF40" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="81"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="80">
-        <v>15</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="83"/>
-      <c r="AD41" s="83"/>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="83"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="81"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A42" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="80">
-        <v>16</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG42" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH42" s="81"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A43" s="109"/>
-      <c r="B43" s="80">
-        <v>17</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="84" t="s">
-        <v>175</v>
+      <c r="J38" s="78"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="81" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="K1:AI1"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="J1:AH1"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="A2:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21085,105 +20942,105 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>490</v>
+        <v>116</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="119" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="119" t="s">
         <v>146</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>371</v>
-      </c>
-      <c r="H8" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="119" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="119" t="s">
-        <v>152</v>
       </c>
       <c r="K8" s="119" t="s">
         <v>66</v>
@@ -21192,13 +21049,13 @@
         <v>65</v>
       </c>
       <c r="M8" s="119" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N8" s="119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="119" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -21220,37 +21077,37 @@
     </row>
     <row r="10" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
-      <c r="B10" s="88" t="s">
-        <v>497</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88" t="s">
-        <v>502</v>
-      </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88" t="s">
-        <v>499</v>
-      </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88" t="s">
-        <v>498</v>
-      </c>
-      <c r="K10" s="88" t="s">
-        <v>503</v>
-      </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="B10" s="84" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84" t="s">
+        <v>477</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84" t="s">
+        <v>476</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>481</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -21268,18 +21125,18 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
@@ -21293,10 +21150,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -21306,7 +21163,7 @@
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
@@ -21316,14 +21173,14 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -21331,7 +21188,7 @@
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -21341,16 +21198,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
